--- a/4000.xlsx
+++ b/4000.xlsx
@@ -1248,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1304,22 +1304,22 @@
         <v>91.2</v>
       </c>
       <c r="E2" s="4">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="F2" s="4">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="G2" s="4">
-        <v>501.3</v>
+        <v>478.6</v>
       </c>
       <c r="H2" s="4">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="I2" s="4">
-        <v>7.8</v>
+        <v>48</v>
       </c>
       <c r="J2" s="4">
-        <v>5.013</v>
+        <v>14.358</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
@@ -1336,22 +1336,22 @@
         <v>91.2</v>
       </c>
       <c r="E3" s="6">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="F3" s="6">
-        <v>0.02</v>
+        <v>0.008</v>
       </c>
       <c r="G3" s="6">
-        <v>392.69</v>
+        <v>535.8</v>
       </c>
       <c r="H3" s="6">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="I3" s="6">
-        <v>0.97</v>
+        <v>6.8</v>
       </c>
       <c r="J3" s="6">
-        <v>3.9269</v>
+        <v>16.074</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1">
@@ -1368,22 +1368,22 @@
         <v>91.2</v>
       </c>
       <c r="E4" s="6">
-        <v>0.02</v>
+        <v>0.008</v>
       </c>
       <c r="F4" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G4" s="6">
-        <v>274.81</v>
+        <v>513</v>
       </c>
       <c r="H4" s="6">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6">
-        <v>0.99</v>
+        <v>4.5</v>
       </c>
       <c r="J4" s="6">
-        <v>2.7481</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1">
@@ -1400,22 +1400,22 @@
         <v>91.2</v>
       </c>
       <c r="E5" s="6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="6">
-        <v>0.04</v>
+        <v>0.012</v>
       </c>
       <c r="G5" s="6">
-        <v>191.05</v>
+        <v>478.6</v>
       </c>
       <c r="H5" s="6">
-        <v>0.15</v>
+        <v>0.9</v>
       </c>
       <c r="I5" s="6">
-        <v>0.48</v>
+        <v>3.3</v>
       </c>
       <c r="J5" s="6">
-        <v>1.9105</v>
+        <v>14.358</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1">
@@ -1432,22 +1432,22 @@
         <v>91.2</v>
       </c>
       <c r="E6" s="6">
-        <v>0.04</v>
+        <v>0.012</v>
       </c>
       <c r="F6" s="6">
-        <v>0.05</v>
+        <v>0.014</v>
       </c>
       <c r="G6" s="6">
-        <v>139.94</v>
+        <v>440.2</v>
       </c>
       <c r="H6" s="6">
-        <v>0.13</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="6">
-        <v>0.44</v>
+        <v>2.7</v>
       </c>
       <c r="J6" s="6">
-        <v>1.3994</v>
+        <v>13.206</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1">
@@ -1464,22 +1464,22 @@
         <v>91.2</v>
       </c>
       <c r="E7" s="6">
-        <v>0.05</v>
+        <v>0.014</v>
       </c>
       <c r="F7" s="6">
-        <v>0.06</v>
+        <v>0.016</v>
       </c>
       <c r="G7" s="6">
-        <v>107.33</v>
+        <v>403.1</v>
       </c>
       <c r="H7" s="6">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="I7" s="6">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="J7" s="6">
-        <v>1.0733</v>
+        <v>12.093</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1">
@@ -1496,22 +1496,22 @@
         <v>91.2</v>
       </c>
       <c r="E8" s="6">
-        <v>0.06</v>
+        <v>0.016</v>
       </c>
       <c r="F8" s="6">
-        <v>0.07000000000000001</v>
+        <v>0.018</v>
       </c>
       <c r="G8" s="6">
-        <v>85.09</v>
+        <v>364.4</v>
       </c>
       <c r="H8" s="6">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="6">
-        <v>0.17</v>
+        <v>1.5</v>
       </c>
       <c r="J8" s="6">
-        <v>0.8509</v>
+        <v>10.932</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1">
@@ -1528,22 +1528,22 @@
         <v>91.2</v>
       </c>
       <c r="E9" s="6">
-        <v>0.07000000000000001</v>
+        <v>0.018</v>
       </c>
       <c r="F9" s="6">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="G9" s="6">
-        <v>68.95999999999999</v>
+        <v>329.5</v>
       </c>
       <c r="H9" s="6">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
       <c r="I9" s="6">
-        <v>0.19</v>
+        <v>1.1</v>
       </c>
       <c r="J9" s="6">
-        <v>0.6896</v>
+        <v>9.885</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1">
@@ -1560,22 +1560,22 @@
         <v>91.2</v>
       </c>
       <c r="E10" s="6">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="F10" s="6">
-        <v>0.09</v>
+        <v>0.025</v>
       </c>
       <c r="G10" s="6">
-        <v>56.8</v>
+        <v>287.2</v>
       </c>
       <c r="H10" s="6">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="6">
-        <v>0.13</v>
+        <v>1.2</v>
       </c>
       <c r="J10" s="6">
-        <v>0.5679999999999999</v>
+        <v>8.616</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1">
@@ -1592,22 +1592,22 @@
         <v>91.2</v>
       </c>
       <c r="E11" s="6">
-        <v>0.09</v>
+        <v>0.025</v>
       </c>
       <c r="F11" s="6">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="G11" s="6">
-        <v>47.875</v>
+        <v>237.3</v>
       </c>
       <c r="H11" s="6">
-        <v>0.075</v>
+        <v>0.4</v>
       </c>
       <c r="I11" s="6">
-        <v>0.095</v>
+        <v>1</v>
       </c>
       <c r="J11" s="6">
-        <v>0.47875</v>
+        <v>7.119</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1">
@@ -1624,22 +1624,22 @@
         <v>91.2</v>
       </c>
       <c r="E12" s="6">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F12" s="6">
-        <v>0.12</v>
+        <v>0.035</v>
       </c>
       <c r="G12" s="6">
-        <v>37.655</v>
+        <v>198.1</v>
       </c>
       <c r="H12" s="6">
-        <v>0.047</v>
+        <v>0.4</v>
       </c>
       <c r="I12" s="6">
-        <v>0.074</v>
+        <v>0.8</v>
       </c>
       <c r="J12" s="6">
-        <v>0.37655</v>
+        <v>5.943</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1">
@@ -1656,22 +1656,22 @@
         <v>91.2</v>
       </c>
       <c r="E13" s="6">
-        <v>0.12</v>
+        <v>0.035</v>
       </c>
       <c r="F13" s="6">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="G13" s="6">
-        <v>28.061</v>
+        <v>168.7</v>
       </c>
       <c r="H13" s="6">
-        <v>0.041</v>
+        <v>0.3</v>
       </c>
       <c r="I13" s="6">
-        <v>0.046</v>
+        <v>0.8</v>
       </c>
       <c r="J13" s="6">
-        <v>0.28061</v>
+        <v>5.061</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1">
@@ -1688,22 +1688,22 @@
         <v>91.2</v>
       </c>
       <c r="E14" s="6">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="F14" s="6">
-        <v>0.16</v>
+        <v>0.045</v>
       </c>
       <c r="G14" s="6">
-        <v>21.389</v>
+        <v>145.4</v>
       </c>
       <c r="H14" s="6">
-        <v>0.035</v>
+        <v>0.3</v>
       </c>
       <c r="I14" s="6">
-        <v>0.054</v>
+        <v>0.7</v>
       </c>
       <c r="J14" s="6">
-        <v>0.21389</v>
+        <v>4.362</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1">
@@ -1720,22 +1720,22 @@
         <v>91.2</v>
       </c>
       <c r="E15" s="6">
-        <v>0.16</v>
+        <v>0.045</v>
       </c>
       <c r="F15" s="6">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="G15" s="6">
-        <v>16.661</v>
+        <v>127</v>
       </c>
       <c r="H15" s="6">
-        <v>0.031</v>
+        <v>0.3</v>
       </c>
       <c r="I15" s="6">
-        <v>0.042</v>
+        <v>0.6</v>
       </c>
       <c r="J15" s="6">
-        <v>0.16661</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1">
@@ -1752,22 +1752,22 @@
         <v>91.2</v>
       </c>
       <c r="E16" s="6">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="F16" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G16" s="6">
+        <v>105.4</v>
+      </c>
+      <c r="H16" s="6">
         <v>0.2</v>
       </c>
-      <c r="G16" s="6">
-        <v>13.233</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.028</v>
-      </c>
       <c r="I16" s="6">
-        <v>0.027</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="6">
-        <v>0.13233</v>
+        <v>3.162</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1">
@@ -1784,22 +1784,22 @@
         <v>91.2</v>
       </c>
       <c r="E17" s="6">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="F17" s="6">
-        <v>0.225</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G17" s="6">
-        <v>10.376</v>
+        <v>83.45</v>
       </c>
       <c r="H17" s="6">
-        <v>0.022</v>
+        <v>0.16</v>
       </c>
       <c r="I17" s="6">
-        <v>0.023</v>
+        <v>0.44</v>
       </c>
       <c r="J17" s="6">
-        <v>0.10376</v>
+        <v>2.5035</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1">
@@ -1816,22 +1816,22 @@
         <v>91.2</v>
       </c>
       <c r="E18" s="6">
-        <v>0.225</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F18" s="6">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="G18" s="6">
-        <v>7.928</v>
+        <v>68.12</v>
       </c>
       <c r="H18" s="6">
-        <v>0.019</v>
+        <v>0.15</v>
       </c>
       <c r="I18" s="6">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="J18" s="6">
-        <v>0.07928</v>
+        <v>2.0436</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1">
@@ -1848,22 +1848,22 @@
         <v>91.2</v>
       </c>
       <c r="E19" s="6">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="F19" s="6">
-        <v>0.275</v>
+        <v>0.09</v>
       </c>
       <c r="G19" s="6">
-        <v>6.197</v>
+        <v>56.28</v>
       </c>
       <c r="H19" s="6">
-        <v>0.017</v>
+        <v>0.13</v>
       </c>
       <c r="I19" s="6">
-        <v>0.016</v>
+        <v>0.32</v>
       </c>
       <c r="J19" s="6">
-        <v>0.06197</v>
+        <v>1.6884</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1">
@@ -1880,22 +1880,22 @@
         <v>91.2</v>
       </c>
       <c r="E20" s="6">
-        <v>0.275</v>
+        <v>0.09</v>
       </c>
       <c r="F20" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="6">
-        <v>4.874</v>
+        <v>47.61</v>
       </c>
       <c r="H20" s="6">
-        <v>0.015</v>
+        <v>0.12</v>
       </c>
       <c r="I20" s="6">
-        <v>0.012</v>
+        <v>0.29</v>
       </c>
       <c r="J20" s="6">
-        <v>0.04874</v>
+        <v>1.4283</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1">
@@ -1912,22 +1912,22 @@
         <v>91.2</v>
       </c>
       <c r="E21" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F21" s="6">
-        <v>0.325</v>
+        <v>0.11</v>
       </c>
       <c r="G21" s="6">
-        <v>3.862</v>
+        <v>40.31</v>
       </c>
       <c r="H21" s="6">
-        <v>0.014</v>
+        <v>0.11</v>
       </c>
       <c r="I21" s="6">
-        <v>0.013</v>
+        <v>0.28</v>
       </c>
       <c r="J21" s="6">
-        <v>0.03862</v>
+        <v>1.2093</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1">
@@ -1944,22 +1944,22 @@
         <v>91.2</v>
       </c>
       <c r="E22" s="6">
-        <v>0.325</v>
+        <v>0.11</v>
       </c>
       <c r="F22" s="6">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="G22" s="6">
-        <v>3.055</v>
+        <v>34.46</v>
       </c>
       <c r="H22" s="6">
-        <v>0.012</v>
+        <v>0.1</v>
       </c>
       <c r="I22" s="6">
-        <v>0.018</v>
+        <v>0.28</v>
       </c>
       <c r="J22" s="6">
-        <v>0.03055</v>
+        <v>1.0338</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1">
@@ -1976,22 +1976,22 @@
         <v>91.2</v>
       </c>
       <c r="E23" s="6">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="F23" s="6">
-        <v>0.375</v>
+        <v>0.13</v>
       </c>
       <c r="G23" s="6">
-        <v>2.461</v>
+        <v>29.84</v>
       </c>
       <c r="H23" s="6">
-        <v>0.011</v>
+        <v>0.1</v>
       </c>
       <c r="I23" s="6">
-        <v>0.008999999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="J23" s="6">
-        <v>0.02461</v>
+        <v>0.8952</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1">
@@ -2008,22 +2008,22 @@
         <v>91.2</v>
       </c>
       <c r="E24" s="6">
-        <v>0.375</v>
+        <v>0.13</v>
       </c>
       <c r="F24" s="6">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="G24" s="6">
-        <v>1.995</v>
+        <v>26.07</v>
       </c>
       <c r="H24" s="6">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I24" s="6">
-        <v>0.011</v>
+        <v>0.22</v>
       </c>
       <c r="J24" s="6">
-        <v>0.01995</v>
+        <v>0.7821</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1">
@@ -2040,22 +2040,22 @@
         <v>91.2</v>
       </c>
       <c r="E25" s="6">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="F25" s="6">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="G25" s="6">
-        <v>1.5555</v>
+        <v>21.26</v>
       </c>
       <c r="H25" s="6">
-        <v>0.007900000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I25" s="6">
-        <v>0.0059</v>
+        <v>0.18</v>
       </c>
       <c r="J25" s="6">
-        <v>0.015555</v>
+        <v>0.6378</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1">
@@ -2072,22 +2072,22 @@
         <v>91.2</v>
       </c>
       <c r="E26" s="6">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="F26" s="6">
-        <v>0.46</v>
+        <v>0.18</v>
       </c>
       <c r="G26" s="6">
-        <v>1.2122</v>
+        <v>16.62</v>
       </c>
       <c r="H26" s="6">
-        <v>0.007</v>
+        <v>0.05</v>
       </c>
       <c r="I26" s="6">
-        <v>0.0081</v>
+        <v>0.14</v>
       </c>
       <c r="J26" s="6">
-        <v>0.012122</v>
+        <v>0.4986</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1">
@@ -2104,22 +2104,22 @@
         <v>91.2</v>
       </c>
       <c r="E27" s="6">
-        <v>0.46</v>
+        <v>0.18</v>
       </c>
       <c r="F27" s="6">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="G27" s="6">
-        <v>0.9401</v>
+        <v>13.21</v>
       </c>
       <c r="H27" s="6">
-        <v>0.0061</v>
+        <v>0.05</v>
       </c>
       <c r="I27" s="6">
-        <v>0.0051</v>
+        <v>0.11</v>
       </c>
       <c r="J27" s="6">
-        <v>0.009401</v>
+        <v>0.3963</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1">
@@ -2136,22 +2136,22 @@
         <v>91.2</v>
       </c>
       <c r="E28" s="6">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="F28" s="6">
-        <v>0.52</v>
+        <v>0.225</v>
       </c>
       <c r="G28" s="6">
-        <v>0.7346</v>
+        <v>10.34</v>
       </c>
       <c r="H28" s="6">
-        <v>0.0054</v>
+        <v>0.04</v>
       </c>
       <c r="I28" s="6">
-        <v>0.0091</v>
+        <v>0.08</v>
       </c>
       <c r="J28" s="6">
-        <v>0.007346</v>
+        <v>0.3102</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1">
@@ -2168,22 +2168,22 @@
         <v>91.2</v>
       </c>
       <c r="E29" s="6">
-        <v>0.52</v>
+        <v>0.225</v>
       </c>
       <c r="F29" s="6">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="G29" s="6">
-        <v>0.5634</v>
+        <v>7.92</v>
       </c>
       <c r="H29" s="6">
-        <v>0.0047</v>
+        <v>0.031</v>
       </c>
       <c r="I29" s="6">
-        <v>0.0048</v>
+        <v>0.063</v>
       </c>
       <c r="J29" s="6">
-        <v>0.005634</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1">
@@ -2200,22 +2200,22 @@
         <v>91.2</v>
       </c>
       <c r="E30" s="6">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="F30" s="6">
-        <v>0.6</v>
+        <v>0.275</v>
       </c>
       <c r="G30" s="6">
-        <v>0.41</v>
+        <v>6.197</v>
       </c>
       <c r="H30" s="6">
-        <v>0.0031</v>
+        <v>0.028</v>
       </c>
       <c r="I30" s="6">
-        <v>0.0025</v>
+        <v>0.049</v>
       </c>
       <c r="J30" s="6">
-        <v>0.0041</v>
+        <v>0.18951</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1">
@@ -2232,22 +2232,22 @@
         <v>91.2</v>
       </c>
       <c r="E31" s="6">
-        <v>0.6</v>
+        <v>0.275</v>
       </c>
       <c r="F31" s="6">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="G31" s="6">
-        <v>0.2574</v>
+        <v>4.889</v>
       </c>
       <c r="H31" s="6">
-        <v>0.0025</v>
+        <v>0.025</v>
       </c>
       <c r="I31" s="6">
-        <v>0.0033</v>
+        <v>0.041</v>
       </c>
       <c r="J31" s="6">
-        <v>0.002574</v>
+        <v>0.14667</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1">
@@ -2264,22 +2264,22 @@
         <v>91.2</v>
       </c>
       <c r="E32" s="6">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="F32" s="6">
-        <v>0.7</v>
+        <v>0.325</v>
       </c>
       <c r="G32" s="6">
-        <v>0.172</v>
+        <v>3.845</v>
       </c>
       <c r="H32" s="6">
-        <v>0.002</v>
+        <v>0.022</v>
       </c>
       <c r="I32" s="6">
-        <v>0.0027</v>
+        <v>0.033</v>
       </c>
       <c r="J32" s="6">
-        <v>0.00172</v>
+        <v>0.11535</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1">
@@ -2296,22 +2296,22 @@
         <v>91.2</v>
       </c>
       <c r="E33" s="6">
-        <v>0.7</v>
+        <v>0.325</v>
       </c>
       <c r="F33" s="6">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="G33" s="6">
-        <v>0.1042</v>
+        <v>3.055</v>
       </c>
       <c r="H33" s="6">
-        <v>0.0015</v>
+        <v>0.019</v>
       </c>
       <c r="I33" s="6">
-        <v>0.0026</v>
+        <v>0.03</v>
       </c>
       <c r="J33" s="6">
-        <v>0.001042</v>
+        <v>0.09165</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1">
@@ -2328,22 +2328,22 @@
         <v>91.2</v>
       </c>
       <c r="E34" s="6">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="F34" s="6">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="G34" s="6">
-        <v>0.0608</v>
+        <v>2.476</v>
       </c>
       <c r="H34" s="6">
-        <v>0.0011</v>
+        <v>0.018</v>
       </c>
       <c r="I34" s="6">
-        <v>0.0027</v>
+        <v>0.034</v>
       </c>
       <c r="J34" s="6">
-        <v>0.000608</v>
+        <v>0.07428</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1">
@@ -2360,22 +2360,22 @@
         <v>91.2</v>
       </c>
       <c r="E35" s="6">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="F35" s="6">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G35" s="6">
-        <v>0.0263</v>
+        <v>1.978</v>
       </c>
       <c r="H35" s="6">
-        <v>0.0005</v>
+        <v>0.016</v>
       </c>
       <c r="I35" s="6">
-        <v>0.0032</v>
+        <v>0.039</v>
       </c>
       <c r="J35" s="6">
-        <v>0.000263</v>
+        <v>0.05934</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1">
@@ -2392,22 +2392,374 @@
         <v>91.2</v>
       </c>
       <c r="E36" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.013</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.041</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.0465</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1.212</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.011</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.036</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.03636</v>
+      </c>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.0098</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.0273</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.028125</v>
+      </c>
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.7318</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.0086</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.019</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.021954</v>
+      </c>
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.5672</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.0077</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.0139</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.017016</v>
+      </c>
+    </row>
+    <row r="41" ht="16" customHeight="1">
+      <c r="A41" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.4022</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.0049</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.0098</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.012066</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="1">
+      <c r="A42" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D42" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.2602</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.004</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.0064</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.007806</v>
+      </c>
+    </row>
+    <row r="43" ht="16" customHeight="1">
+      <c r="A43" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.1721</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.0033</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.0044</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.005163</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="1">
+      <c r="A44" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D44" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.1064</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.0025</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.0029</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.003192</v>
+      </c>
+    </row>
+    <row r="45" ht="16" customHeight="1">
+      <c r="A45" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D45" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.0587</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.0017</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.002</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.001761</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="1">
+      <c r="A46" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D46" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F46" s="6">
         <v>0.9</v>
       </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0.0049</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0.0002</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0.002</v>
-      </c>
-      <c r="J36" s="6">
-        <v>4.9e-05</v>
+      <c r="G46" s="6">
+        <v>0.0262</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.0008</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.0015</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.000786</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="1">
+      <c r="A47" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.0047</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.0003</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.0009</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.000141</v>
       </c>
     </row>
   </sheetData>
